--- a/bin/Debug/net6.0-windows/Source/course.xlsx
+++ b/bin/Debug/net6.0-windows/Source/course.xlsx
@@ -37,7 +37,7 @@
     <t>Польский злотый</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -371,9 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -413,7 +411,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>44987</v>
@@ -427,7 +425,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>44988</v>
@@ -441,7 +439,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>44989</v>
@@ -455,7 +453,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>44992</v>
@@ -469,7 +467,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>44993</v>
@@ -483,7 +481,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>44995</v>
@@ -497,7 +495,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>44996</v>
@@ -511,7 +509,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>44999</v>
@@ -525,7 +523,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>45000</v>
@@ -539,7 +537,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>45001</v>
@@ -553,7 +551,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>45002</v>
@@ -567,7 +565,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>45003</v>
@@ -581,7 +579,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>45006</v>
@@ -595,7 +593,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>45007</v>
@@ -609,7 +607,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>45008</v>
@@ -623,7 +621,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>45009</v>
@@ -637,7 +635,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>45010</v>
@@ -651,7 +649,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>45013</v>
@@ -665,7 +663,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>45014</v>
@@ -679,7 +677,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>45015</v>
@@ -693,7 +691,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>45016</v>
@@ -718,9 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -757,7 +753,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>44987</v>
@@ -771,7 +767,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>44988</v>
@@ -785,7 +781,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>44989</v>
@@ -799,7 +795,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>44992</v>
@@ -813,7 +809,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>44993</v>
@@ -827,7 +823,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3">
         <v>44995</v>
@@ -841,7 +837,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3">
         <v>44996</v>
@@ -855,7 +851,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3">
         <v>44999</v>
@@ -869,7 +865,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
         <v>45000</v>
@@ -883,7 +879,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3">
         <v>45001</v>
@@ -897,7 +893,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3">
         <v>45002</v>
@@ -911,7 +907,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3">
         <v>45003</v>
@@ -925,7 +921,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3">
         <v>45006</v>
@@ -939,7 +935,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3">
         <v>45007</v>
@@ -953,7 +949,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3">
         <v>45008</v>
@@ -967,7 +963,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3">
         <v>45009</v>
@@ -981,7 +977,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B19" s="3">
         <v>45010</v>
@@ -995,7 +991,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B20" s="3">
         <v>45013</v>
@@ -1009,7 +1005,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B21" s="3">
         <v>45014</v>
@@ -1023,7 +1019,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3">
         <v>45015</v>
@@ -1037,7 +1033,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B23" s="3">
         <v>45016</v>
